--- a/biology/Zoologie/Genetta_bourloni/Genetta_bourloni.xlsx
+++ b/biology/Zoologie/Genetta_bourloni/Genetta_bourloni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genetta bourloni (Genette de Bourlon) est un mammifère carnivore de la famille des Viverridae qui se rencontre en Afrique de l'Ouest (Côte d'Ivoire, Ghana, Guinée, Liberia, Sierra Leone).
 Son nom lui a été donné en référence à Philippe Bourlon, animalier au zoo de Vincennes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Genetta bourloni ressemble aux autres genettes mais avec des taches moins visibles.
 </t>
